--- a/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/resourceContention.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/resourceContention.xlsx
@@ -11,7 +11,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
@@ -399,6 +398,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,33 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,11 +1282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1735289056"/>
-        <c:axId val="-1735288512"/>
+        <c:axId val="1049736224"/>
+        <c:axId val="1049736768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1735289056"/>
+        <c:axId val="1049736224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735288512"/>
+        <c:crossAx val="1049736768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1431,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735288512"/>
+        <c:axId val="1049736768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -1564,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735289056"/>
+        <c:crossAx val="1049736224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -2098,11 +2097,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735291232"/>
-        <c:axId val="-1735286880"/>
+        <c:axId val="1049737856"/>
+        <c:axId val="1049738400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735291232"/>
+        <c:axId val="1049737856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735286880"/>
+        <c:crossAx val="1049738400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735286880"/>
+        <c:axId val="1049738400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2348,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735291232"/>
+        <c:crossAx val="1049737856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -2841,11 +2840,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735297760"/>
-        <c:axId val="-1735297216"/>
+        <c:axId val="1049738944"/>
+        <c:axId val="1049728064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735297760"/>
+        <c:axId val="1049738944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735297216"/>
+        <c:crossAx val="1049728064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2959,7 +2958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735297216"/>
+        <c:axId val="1049728064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -3090,7 +3089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735297760"/>
+        <c:crossAx val="1049738944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -3583,11 +3582,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735285792"/>
-        <c:axId val="-1735290688"/>
+        <c:axId val="1049730240"/>
+        <c:axId val="1049730784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735285792"/>
+        <c:axId val="1049730240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +3692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735290688"/>
+        <c:crossAx val="1049730784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3701,7 +3700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735290688"/>
+        <c:axId val="1049730784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -3833,7 +3832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735285792"/>
+        <c:crossAx val="1049730240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -4326,11 +4325,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735294496"/>
-        <c:axId val="-1735299392"/>
+        <c:axId val="1049732416"/>
+        <c:axId val="1053253264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735294496"/>
+        <c:axId val="1049732416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,7 +4435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735299392"/>
+        <c:crossAx val="1053253264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4444,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735299392"/>
+        <c:axId val="1053253264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -4576,7 +4575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735294496"/>
+        <c:crossAx val="1049732416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -5068,11 +5067,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735290144"/>
-        <c:axId val="-1735289600"/>
+        <c:axId val="1053248912"/>
+        <c:axId val="1053252720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735290144"/>
+        <c:axId val="1053248912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5178,7 +5177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735289600"/>
+        <c:crossAx val="1053252720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5186,7 +5185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735289600"/>
+        <c:axId val="1053252720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -5318,7 +5317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735290144"/>
+        <c:crossAx val="1053248912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -6172,11 +6171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1735286336"/>
-        <c:axId val="-1735298848"/>
+        <c:axId val="1049740576"/>
+        <c:axId val="1049725888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1735286336"/>
+        <c:axId val="1049740576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6312,7 +6311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735298848"/>
+        <c:crossAx val="1049725888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6320,7 +6319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735298848"/>
+        <c:axId val="1049725888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100"/>
@@ -6453,7 +6452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735286336"/>
+        <c:crossAx val="1049740576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6980,11 +6979,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735293952"/>
-        <c:axId val="-1735293408"/>
+        <c:axId val="1049731328"/>
+        <c:axId val="1049740032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735293952"/>
+        <c:axId val="1049731328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7087,7 +7086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735293408"/>
+        <c:crossAx val="1049740032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7095,7 +7094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735293408"/>
+        <c:axId val="1049740032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="175"/>
@@ -7226,7 +7225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735293952"/>
+        <c:crossAx val="1049731328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -7712,11 +7711,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735295584"/>
-        <c:axId val="-1735299936"/>
+        <c:axId val="1049735680"/>
+        <c:axId val="1049737312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735295584"/>
+        <c:axId val="1049735680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735299936"/>
+        <c:crossAx val="1049737312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7827,7 +7826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735299936"/>
+        <c:axId val="1049737312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="175"/>
@@ -7958,7 +7957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735295584"/>
+        <c:crossAx val="1049735680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -8451,11 +8450,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735292864"/>
-        <c:axId val="-1735292320"/>
+        <c:axId val="1049726432"/>
+        <c:axId val="1049726976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735292864"/>
+        <c:axId val="1049726432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8561,7 +8560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735292320"/>
+        <c:crossAx val="1049726976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8569,7 +8568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735292320"/>
+        <c:axId val="1049726976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -8700,7 +8699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735292864"/>
+        <c:crossAx val="1049726432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -9193,11 +9192,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735287968"/>
-        <c:axId val="-1735287424"/>
+        <c:axId val="1049729696"/>
+        <c:axId val="1049727520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735287968"/>
+        <c:axId val="1049729696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9303,7 +9302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735287424"/>
+        <c:crossAx val="1049727520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9311,7 +9310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735287424"/>
+        <c:axId val="1049727520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -9442,7 +9441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735287968"/>
+        <c:crossAx val="1049729696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -9935,11 +9934,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735284704"/>
-        <c:axId val="-1735298304"/>
+        <c:axId val="1049734048"/>
+        <c:axId val="1049731872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735284704"/>
+        <c:axId val="1049734048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10045,7 +10044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735298304"/>
+        <c:crossAx val="1049731872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10053,7 +10052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735298304"/>
+        <c:axId val="1049731872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -10184,7 +10183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735284704"/>
+        <c:crossAx val="1049734048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -10677,11 +10676,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735291776"/>
-        <c:axId val="-1735296128"/>
+        <c:axId val="1049735136"/>
+        <c:axId val="1049732960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735291776"/>
+        <c:axId val="1049735136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10787,7 +10786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735296128"/>
+        <c:crossAx val="1049732960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10795,7 +10794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735296128"/>
+        <c:axId val="1049732960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -10926,7 +10925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735291776"/>
+        <c:crossAx val="1049735136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -11419,11 +11418,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1735295040"/>
-        <c:axId val="-1735285248"/>
+        <c:axId val="1049739488"/>
+        <c:axId val="1049733504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1735295040"/>
+        <c:axId val="1049739488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11529,7 +11528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735285248"/>
+        <c:crossAx val="1049733504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11537,7 +11536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1735285248"/>
+        <c:axId val="1049733504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -11668,7 +11667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1735295040"/>
+        <c:crossAx val="1049739488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -19947,1307 +19946,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="AK4">
-            <v>0</v>
-          </cell>
-          <cell r="AL4">
-            <v>0</v>
-          </cell>
-          <cell r="AM4">
-            <v>0</v>
-          </cell>
-          <cell r="AN4">
-            <v>0</v>
-          </cell>
-          <cell r="AO4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AK5">
-            <v>43</v>
-          </cell>
-          <cell r="AL5">
-            <v>47</v>
-          </cell>
-          <cell r="AM5">
-            <v>105</v>
-          </cell>
-          <cell r="AN5">
-            <v>0</v>
-          </cell>
-          <cell r="AO5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AK6">
-            <v>23</v>
-          </cell>
-          <cell r="AL6">
-            <v>46</v>
-          </cell>
-          <cell r="AM6">
-            <v>98</v>
-          </cell>
-          <cell r="AN6">
-            <v>162</v>
-          </cell>
-          <cell r="AO6">
-            <v>136</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AK7">
-            <v>42</v>
-          </cell>
-          <cell r="AL7">
-            <v>60</v>
-          </cell>
-          <cell r="AM7">
-            <v>93</v>
-          </cell>
-          <cell r="AN7">
-            <v>160</v>
-          </cell>
-          <cell r="AO7">
-            <v>141</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AK8">
-            <v>43</v>
-          </cell>
-          <cell r="AL8">
-            <v>77</v>
-          </cell>
-          <cell r="AM8">
-            <v>134</v>
-          </cell>
-          <cell r="AN8">
-            <v>261</v>
-          </cell>
-          <cell r="AO8">
-            <v>295</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AK9">
-            <v>59</v>
-          </cell>
-          <cell r="AL9">
-            <v>91</v>
-          </cell>
-          <cell r="AM9">
-            <v>149</v>
-          </cell>
-          <cell r="AN9">
-            <v>254</v>
-          </cell>
-          <cell r="AO9">
-            <v>308</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AK10">
-            <v>61</v>
-          </cell>
-          <cell r="AL10">
-            <v>102</v>
-          </cell>
-          <cell r="AM10">
-            <v>177</v>
-          </cell>
-          <cell r="AN10">
-            <v>290</v>
-          </cell>
-          <cell r="AO10">
-            <v>328</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AK11">
-            <v>62</v>
-          </cell>
-          <cell r="AL11">
-            <v>103</v>
-          </cell>
-          <cell r="AM11">
-            <v>164</v>
-          </cell>
-          <cell r="AN11">
-            <v>290</v>
-          </cell>
-          <cell r="AO11">
-            <v>341</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AK12">
-            <v>64</v>
-          </cell>
-          <cell r="AL12">
-            <v>106</v>
-          </cell>
-          <cell r="AM12">
-            <v>175</v>
-          </cell>
-          <cell r="AN12">
-            <v>304</v>
-          </cell>
-          <cell r="AO12">
-            <v>341</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AK17">
-            <v>0</v>
-          </cell>
-          <cell r="AL17">
-            <v>0</v>
-          </cell>
-          <cell r="AM17">
-            <v>0</v>
-          </cell>
-          <cell r="AN17">
-            <v>0</v>
-          </cell>
-          <cell r="AO17">
-            <v>0</v>
-          </cell>
-          <cell r="AR17">
-            <v>0</v>
-          </cell>
-          <cell r="AS17">
-            <v>0</v>
-          </cell>
-          <cell r="AT17">
-            <v>0</v>
-          </cell>
-          <cell r="AU17">
-            <v>0</v>
-          </cell>
-          <cell r="AV17">
-            <v>0</v>
-          </cell>
-          <cell r="AY17">
-            <v>0</v>
-          </cell>
-          <cell r="AZ17">
-            <v>0</v>
-          </cell>
-          <cell r="BA17">
-            <v>0</v>
-          </cell>
-          <cell r="BB17">
-            <v>0</v>
-          </cell>
-          <cell r="BC17">
-            <v>0</v>
-          </cell>
-          <cell r="BF17">
-            <v>0</v>
-          </cell>
-          <cell r="BG17">
-            <v>0</v>
-          </cell>
-          <cell r="BH17">
-            <v>0</v>
-          </cell>
-          <cell r="BI17">
-            <v>0</v>
-          </cell>
-          <cell r="BJ17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AK18">
-            <v>0</v>
-          </cell>
-          <cell r="AL18">
-            <v>0.5</v>
-          </cell>
-          <cell r="AM18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AN18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AO18">
-            <v>0.5</v>
-          </cell>
-          <cell r="AR18">
-            <v>0</v>
-          </cell>
-          <cell r="AS18">
-            <v>0.5</v>
-          </cell>
-          <cell r="AT18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AU18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AV18">
-            <v>0.5</v>
-          </cell>
-          <cell r="AY18">
-            <v>0</v>
-          </cell>
-          <cell r="AZ18">
-            <v>0.5</v>
-          </cell>
-          <cell r="BA18">
-            <v>0.25</v>
-          </cell>
-          <cell r="BB18">
-            <v>0.25</v>
-          </cell>
-          <cell r="BC18">
-            <v>0.5</v>
-          </cell>
-          <cell r="BF18">
-            <v>0</v>
-          </cell>
-          <cell r="BG18">
-            <v>0.5</v>
-          </cell>
-          <cell r="BH18">
-            <v>0.25</v>
-          </cell>
-          <cell r="BI18">
-            <v>0.25</v>
-          </cell>
-          <cell r="BJ18">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AK19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AL19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AM19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AN19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AO19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AR19">
-            <v>0.25</v>
-          </cell>
-          <cell r="AS19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AT19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AU19">
-            <v>0.25</v>
-          </cell>
-          <cell r="AV19">
-            <v>0.25</v>
-          </cell>
-          <cell r="AY19">
-            <v>0.25</v>
-          </cell>
-          <cell r="AZ19">
-            <v>0.75</v>
-          </cell>
-          <cell r="BA19">
-            <v>0.5</v>
-          </cell>
-          <cell r="BB19">
-            <v>0</v>
-          </cell>
-          <cell r="BC19">
-            <v>0</v>
-          </cell>
-          <cell r="BF19">
-            <v>0.75</v>
-          </cell>
-          <cell r="BG19">
-            <v>0.75</v>
-          </cell>
-          <cell r="BH19">
-            <v>0</v>
-          </cell>
-          <cell r="BI19">
-            <v>0</v>
-          </cell>
-          <cell r="BJ19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AK20">
-            <v>2.5</v>
-          </cell>
-          <cell r="AL20">
-            <v>1.5</v>
-          </cell>
-          <cell r="AM20">
-            <v>2.75</v>
-          </cell>
-          <cell r="AN20">
-            <v>2.25</v>
-          </cell>
-          <cell r="AO20">
-            <v>3.25</v>
-          </cell>
-          <cell r="AR20">
-            <v>2</v>
-          </cell>
-          <cell r="AS20">
-            <v>2</v>
-          </cell>
-          <cell r="AT20">
-            <v>8.75</v>
-          </cell>
-          <cell r="AU20">
-            <v>6.75</v>
-          </cell>
-          <cell r="AV20">
-            <v>9.75</v>
-          </cell>
-          <cell r="AY20">
-            <v>0.5</v>
-          </cell>
-          <cell r="AZ20">
-            <v>2.75</v>
-          </cell>
-          <cell r="BA20">
-            <v>7.25</v>
-          </cell>
-          <cell r="BB20">
-            <v>30.75</v>
-          </cell>
-          <cell r="BC20">
-            <v>2.25</v>
-          </cell>
-          <cell r="BF20">
-            <v>1</v>
-          </cell>
-          <cell r="BG20">
-            <v>1.75</v>
-          </cell>
-          <cell r="BH20">
-            <v>2.25</v>
-          </cell>
-          <cell r="BI20">
-            <v>10.25</v>
-          </cell>
-          <cell r="BJ20">
-            <v>1.75</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AK21">
-            <v>1</v>
-          </cell>
-          <cell r="AL21">
-            <v>0.75</v>
-          </cell>
-          <cell r="AM21">
-            <v>0.75</v>
-          </cell>
-          <cell r="AN21">
-            <v>4</v>
-          </cell>
-          <cell r="AO21">
-            <v>9</v>
-          </cell>
-          <cell r="AR21">
-            <v>1.5</v>
-          </cell>
-          <cell r="AS21">
-            <v>4.75</v>
-          </cell>
-          <cell r="AT21">
-            <v>5.75</v>
-          </cell>
-          <cell r="AU21">
-            <v>22</v>
-          </cell>
-          <cell r="AV21">
-            <v>31</v>
-          </cell>
-          <cell r="AY21">
-            <v>2.5</v>
-          </cell>
-          <cell r="AZ21">
-            <v>4.75</v>
-          </cell>
-          <cell r="BA21">
-            <v>5.5</v>
-          </cell>
-          <cell r="BB21">
-            <v>22.5</v>
-          </cell>
-          <cell r="BC21">
-            <v>32</v>
-          </cell>
-          <cell r="BF21">
-            <v>0</v>
-          </cell>
-          <cell r="BG21">
-            <v>0.75</v>
-          </cell>
-          <cell r="BH21">
-            <v>1</v>
-          </cell>
-          <cell r="BI21">
-            <v>5.5</v>
-          </cell>
-          <cell r="BJ21">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AK22">
-            <v>4</v>
-          </cell>
-          <cell r="AL22">
-            <v>3.75</v>
-          </cell>
-          <cell r="AM22">
-            <v>18.25</v>
-          </cell>
-          <cell r="AN22">
-            <v>34.75</v>
-          </cell>
-          <cell r="AO22">
-            <v>8.5</v>
-          </cell>
-          <cell r="AR22">
-            <v>1.5</v>
-          </cell>
-          <cell r="AS22">
-            <v>6.75</v>
-          </cell>
-          <cell r="AT22">
-            <v>4.75</v>
-          </cell>
-          <cell r="AU22">
-            <v>10.75</v>
-          </cell>
-          <cell r="AV22">
-            <v>47.5</v>
-          </cell>
-          <cell r="AY22">
-            <v>1.25</v>
-          </cell>
-          <cell r="AZ22">
-            <v>3.75</v>
-          </cell>
-          <cell r="BA22">
-            <v>7</v>
-          </cell>
-          <cell r="BB22">
-            <v>30.5</v>
-          </cell>
-          <cell r="BC22">
-            <v>10.5</v>
-          </cell>
-          <cell r="BF22">
-            <v>7.25</v>
-          </cell>
-          <cell r="BG22">
-            <v>7.75</v>
-          </cell>
-          <cell r="BH22">
-            <v>5</v>
-          </cell>
-          <cell r="BI22">
-            <v>10</v>
-          </cell>
-          <cell r="BJ22">
-            <v>45.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AK23">
-            <v>3.25</v>
-          </cell>
-          <cell r="AL23">
-            <v>3.75</v>
-          </cell>
-          <cell r="AM23">
-            <v>4.75</v>
-          </cell>
-          <cell r="AN23">
-            <v>15.25</v>
-          </cell>
-          <cell r="AO23">
-            <v>9.25</v>
-          </cell>
-          <cell r="AR23">
-            <v>4.75</v>
-          </cell>
-          <cell r="AS23">
-            <v>7.25</v>
-          </cell>
-          <cell r="AT23">
-            <v>3.25</v>
-          </cell>
-          <cell r="AU23">
-            <v>19.75</v>
-          </cell>
-          <cell r="AV23">
-            <v>38.75</v>
-          </cell>
-          <cell r="AY23">
-            <v>4</v>
-          </cell>
-          <cell r="AZ23">
-            <v>7.5</v>
-          </cell>
-          <cell r="BA23">
-            <v>7.25</v>
-          </cell>
-          <cell r="BB23">
-            <v>21.5</v>
-          </cell>
-          <cell r="BC23">
-            <v>37.5</v>
-          </cell>
-          <cell r="BF23">
-            <v>1</v>
-          </cell>
-          <cell r="BG23">
-            <v>4.5</v>
-          </cell>
-          <cell r="BH23">
-            <v>7.75</v>
-          </cell>
-          <cell r="BI23">
-            <v>15.5</v>
-          </cell>
-          <cell r="BJ23">
-            <v>6.5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AK24">
-            <v>5</v>
-          </cell>
-          <cell r="AL24">
-            <v>3</v>
-          </cell>
-          <cell r="AM24">
-            <v>15.75</v>
-          </cell>
-          <cell r="AN24">
-            <v>28.25</v>
-          </cell>
-          <cell r="AO24">
-            <v>10.5</v>
-          </cell>
-          <cell r="AR24">
-            <v>2.5</v>
-          </cell>
-          <cell r="AS24">
-            <v>5.5</v>
-          </cell>
-          <cell r="AT24">
-            <v>8.25</v>
-          </cell>
-          <cell r="AU24">
-            <v>19.75</v>
-          </cell>
-          <cell r="AV24">
-            <v>27.5</v>
-          </cell>
-          <cell r="AY24">
-            <v>3.25</v>
-          </cell>
-          <cell r="AZ24">
-            <v>8</v>
-          </cell>
-          <cell r="BA24">
-            <v>6</v>
-          </cell>
-          <cell r="BB24">
-            <v>16</v>
-          </cell>
-          <cell r="BC24">
-            <v>36.75</v>
-          </cell>
-          <cell r="BF24">
-            <v>9.25</v>
-          </cell>
-          <cell r="BG24">
-            <v>6.5</v>
-          </cell>
-          <cell r="BH24">
-            <v>5</v>
-          </cell>
-          <cell r="BI24">
-            <v>15</v>
-          </cell>
-          <cell r="BJ24">
-            <v>37.25</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AK25">
-            <v>4.25</v>
-          </cell>
-          <cell r="AL25">
-            <v>6</v>
-          </cell>
-          <cell r="AM25">
-            <v>4.25</v>
-          </cell>
-          <cell r="AN25">
-            <v>16.5</v>
-          </cell>
-          <cell r="AO25">
-            <v>24.5</v>
-          </cell>
-          <cell r="AR25">
-            <v>3.75</v>
-          </cell>
-          <cell r="AS25">
-            <v>4.5</v>
-          </cell>
-          <cell r="AT25">
-            <v>5.25</v>
-          </cell>
-          <cell r="AU25">
-            <v>16</v>
-          </cell>
-          <cell r="AV25">
-            <v>27</v>
-          </cell>
-          <cell r="AY25">
-            <v>3.25</v>
-          </cell>
-          <cell r="AZ25">
-            <v>5.5</v>
-          </cell>
-          <cell r="BA25">
-            <v>5.25</v>
-          </cell>
-          <cell r="BB25">
-            <v>16.5</v>
-          </cell>
-          <cell r="BC25">
-            <v>29</v>
-          </cell>
-          <cell r="BF25">
-            <v>5.75</v>
-          </cell>
-          <cell r="BG25">
-            <v>6</v>
-          </cell>
-          <cell r="BH25">
-            <v>6.25</v>
-          </cell>
-          <cell r="BI25">
-            <v>19</v>
-          </cell>
-          <cell r="BJ25">
-            <v>28.5</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AL52">
-            <v>2</v>
-          </cell>
-          <cell r="AM52">
-            <v>4</v>
-          </cell>
-          <cell r="AN52">
-            <v>6</v>
-          </cell>
-          <cell r="AO52">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AL53">
-            <v>2</v>
-          </cell>
-          <cell r="AM53">
-            <v>1</v>
-          </cell>
-          <cell r="AN53">
-            <v>7</v>
-          </cell>
-          <cell r="AO53">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AL54">
-            <v>0</v>
-          </cell>
-          <cell r="AM54">
-            <v>1</v>
-          </cell>
-          <cell r="AN54">
-            <v>1</v>
-          </cell>
-          <cell r="AO54">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="AL55">
-            <v>4</v>
-          </cell>
-          <cell r="AM55">
-            <v>2</v>
-          </cell>
-          <cell r="AN55">
-            <v>6</v>
-          </cell>
-          <cell r="AO55">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="AL56">
-            <v>0</v>
-          </cell>
-          <cell r="AM56">
-            <v>1</v>
-          </cell>
-          <cell r="AN56">
-            <v>3</v>
-          </cell>
-          <cell r="AO56">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="AL57">
-            <v>2</v>
-          </cell>
-          <cell r="AM57">
-            <v>1</v>
-          </cell>
-          <cell r="AN57">
-            <v>15</v>
-          </cell>
-          <cell r="AO57">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="AL58">
-            <v>1</v>
-          </cell>
-          <cell r="AM58">
-            <v>4</v>
-          </cell>
-          <cell r="AN58">
-            <v>5</v>
-          </cell>
-          <cell r="AO58">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="AL59">
-            <v>6</v>
-          </cell>
-          <cell r="AM59">
-            <v>6</v>
-          </cell>
-          <cell r="AN59">
-            <v>8</v>
-          </cell>
-          <cell r="AO59">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="AL60">
-            <v>6</v>
-          </cell>
-          <cell r="AM60">
-            <v>2</v>
-          </cell>
-          <cell r="AN60">
-            <v>6</v>
-          </cell>
-          <cell r="AO60">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="AL65">
-            <v>0</v>
-          </cell>
-          <cell r="AM65">
-            <v>0</v>
-          </cell>
-          <cell r="AN65">
-            <v>0</v>
-          </cell>
-          <cell r="AO65">
-            <v>0</v>
-          </cell>
-          <cell r="AS65">
-            <v>0</v>
-          </cell>
-          <cell r="AT65">
-            <v>0</v>
-          </cell>
-          <cell r="AU65">
-            <v>0</v>
-          </cell>
-          <cell r="AV65">
-            <v>0</v>
-          </cell>
-          <cell r="AZ65">
-            <v>0</v>
-          </cell>
-          <cell r="BA65">
-            <v>0</v>
-          </cell>
-          <cell r="BB65">
-            <v>0</v>
-          </cell>
-          <cell r="BC65">
-            <v>0</v>
-          </cell>
-          <cell r="BG65">
-            <v>0</v>
-          </cell>
-          <cell r="BH65">
-            <v>0</v>
-          </cell>
-          <cell r="BI65">
-            <v>0</v>
-          </cell>
-          <cell r="BJ65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="AL66">
-            <v>0</v>
-          </cell>
-          <cell r="AM66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AN66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AO66">
-            <v>5.75</v>
-          </cell>
-          <cell r="AS66">
-            <v>0</v>
-          </cell>
-          <cell r="AT66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AU66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AV66">
-            <v>5.75</v>
-          </cell>
-          <cell r="AZ66">
-            <v>0</v>
-          </cell>
-          <cell r="BA66">
-            <v>0.25</v>
-          </cell>
-          <cell r="BB66">
-            <v>0.25</v>
-          </cell>
-          <cell r="BC66">
-            <v>5.75</v>
-          </cell>
-          <cell r="BG66">
-            <v>0</v>
-          </cell>
-          <cell r="BH66">
-            <v>0.25</v>
-          </cell>
-          <cell r="BI66">
-            <v>0.25</v>
-          </cell>
-          <cell r="BJ66">
-            <v>5.75</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="AL67">
-            <v>0</v>
-          </cell>
-          <cell r="AM67">
-            <v>0</v>
-          </cell>
-          <cell r="AN67">
-            <v>1.5</v>
-          </cell>
-          <cell r="AO67">
-            <v>1.5</v>
-          </cell>
-          <cell r="AS67">
-            <v>0.5</v>
-          </cell>
-          <cell r="AT67">
-            <v>0</v>
-          </cell>
-          <cell r="AU67">
-            <v>3</v>
-          </cell>
-          <cell r="AV67">
-            <v>1</v>
-          </cell>
-          <cell r="AZ67">
-            <v>1</v>
-          </cell>
-          <cell r="BA67">
-            <v>0.25</v>
-          </cell>
-          <cell r="BB67">
-            <v>4.75</v>
-          </cell>
-          <cell r="BC67">
-            <v>2.75</v>
-          </cell>
-          <cell r="BG67">
-            <v>1.5</v>
-          </cell>
-          <cell r="BH67">
-            <v>0.75</v>
-          </cell>
-          <cell r="BI67">
-            <v>6.75</v>
-          </cell>
-          <cell r="BJ67">
-            <v>6.75</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="AL68">
-            <v>3.25</v>
-          </cell>
-          <cell r="AM68">
-            <v>3</v>
-          </cell>
-          <cell r="AN68">
-            <v>23.25</v>
-          </cell>
-          <cell r="AO68">
-            <v>28.75</v>
-          </cell>
-          <cell r="AS68">
-            <v>6.75</v>
-          </cell>
-          <cell r="AT68">
-            <v>9.5</v>
-          </cell>
-          <cell r="AU68">
-            <v>24.75</v>
-          </cell>
-          <cell r="AV68">
-            <v>63.25</v>
-          </cell>
-          <cell r="AZ68">
-            <v>0.75</v>
-          </cell>
-          <cell r="BA68">
-            <v>1.25</v>
-          </cell>
-          <cell r="BB68">
-            <v>2.25</v>
-          </cell>
-          <cell r="BC68">
-            <v>3.25</v>
-          </cell>
-          <cell r="BG68">
-            <v>2.25</v>
-          </cell>
-          <cell r="BH68">
-            <v>1.25</v>
-          </cell>
-          <cell r="BI68">
-            <v>15.75</v>
-          </cell>
-          <cell r="BJ68">
-            <v>4.75</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="AL69">
-            <v>1</v>
-          </cell>
-          <cell r="AM69">
-            <v>6</v>
-          </cell>
-          <cell r="AN69">
-            <v>5.75</v>
-          </cell>
-          <cell r="AO69">
-            <v>0.75</v>
-          </cell>
-          <cell r="AS69">
-            <v>6.5</v>
-          </cell>
-          <cell r="AT69">
-            <v>5.5</v>
-          </cell>
-          <cell r="AU69">
-            <v>26.25</v>
-          </cell>
-          <cell r="AV69">
-            <v>47.25</v>
-          </cell>
-          <cell r="AZ69">
-            <v>6.75</v>
-          </cell>
-          <cell r="BA69">
-            <v>3.5</v>
-          </cell>
-          <cell r="BB69">
-            <v>26.25</v>
-          </cell>
-          <cell r="BC69">
-            <v>39</v>
-          </cell>
-          <cell r="BG69">
-            <v>1.75</v>
-          </cell>
-          <cell r="BH69">
-            <v>4</v>
-          </cell>
-          <cell r="BI69">
-            <v>4.75</v>
-          </cell>
-          <cell r="BJ69">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="AL70">
-            <v>9</v>
-          </cell>
-          <cell r="AM70">
-            <v>9</v>
-          </cell>
-          <cell r="AN70">
-            <v>29.5</v>
-          </cell>
-          <cell r="AO70">
-            <v>56</v>
-          </cell>
-          <cell r="AS70">
-            <v>0.5</v>
-          </cell>
-          <cell r="AT70">
-            <v>1</v>
-          </cell>
-          <cell r="AU70">
-            <v>5.5</v>
-          </cell>
-          <cell r="AV70">
-            <v>8</v>
-          </cell>
-          <cell r="AZ70">
-            <v>11.25</v>
-          </cell>
-          <cell r="BA70">
-            <v>11.75</v>
-          </cell>
-          <cell r="BB70">
-            <v>33</v>
-          </cell>
-          <cell r="BC70">
-            <v>57.75</v>
-          </cell>
-          <cell r="BG70">
-            <v>0.25</v>
-          </cell>
-          <cell r="BH70">
-            <v>1.25</v>
-          </cell>
-          <cell r="BI70">
-            <v>4</v>
-          </cell>
-          <cell r="BJ70">
-            <v>7.25</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="AL71">
-            <v>4.75</v>
-          </cell>
-          <cell r="AM71">
-            <v>1</v>
-          </cell>
-          <cell r="AN71">
-            <v>9</v>
-          </cell>
-          <cell r="AO71">
-            <v>3.75</v>
-          </cell>
-          <cell r="AS71">
-            <v>5.25</v>
-          </cell>
-          <cell r="AT71">
-            <v>9</v>
-          </cell>
-          <cell r="AU71">
-            <v>27</v>
-          </cell>
-          <cell r="AV71">
-            <v>55.75</v>
-          </cell>
-          <cell r="AZ71">
-            <v>7</v>
-          </cell>
-          <cell r="BA71">
-            <v>6.25</v>
-          </cell>
-          <cell r="BB71">
-            <v>37.25</v>
-          </cell>
-          <cell r="BC71">
-            <v>61</v>
-          </cell>
-          <cell r="BG71">
-            <v>2</v>
-          </cell>
-          <cell r="BH71">
-            <v>0.75</v>
-          </cell>
-          <cell r="BI71">
-            <v>1.75</v>
-          </cell>
-          <cell r="BJ71">
-            <v>2.5</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="AL72">
-            <v>3</v>
-          </cell>
-          <cell r="AM72">
-            <v>7.25</v>
-          </cell>
-          <cell r="AN72">
-            <v>23.75</v>
-          </cell>
-          <cell r="AO72">
-            <v>38.75</v>
-          </cell>
-          <cell r="AS72">
-            <v>6.5</v>
-          </cell>
-          <cell r="AT72">
-            <v>3.75</v>
-          </cell>
-          <cell r="AU72">
-            <v>29.25</v>
-          </cell>
-          <cell r="AV72">
-            <v>46.25</v>
-          </cell>
-          <cell r="AZ72">
-            <v>6</v>
-          </cell>
-          <cell r="BA72">
-            <v>6.25</v>
-          </cell>
-          <cell r="BB72">
-            <v>24.75</v>
-          </cell>
-          <cell r="BC72">
-            <v>40.5</v>
-          </cell>
-          <cell r="BG72">
-            <v>1.5</v>
-          </cell>
-          <cell r="BH72">
-            <v>2.75</v>
-          </cell>
-          <cell r="BI72">
-            <v>9.25</v>
-          </cell>
-          <cell r="BJ72">
-            <v>13.5</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="AL73">
-            <v>2.75</v>
-          </cell>
-          <cell r="AM73">
-            <v>5.25</v>
-          </cell>
-          <cell r="AN73">
-            <v>19.75</v>
-          </cell>
-          <cell r="AO73">
-            <v>32.25</v>
-          </cell>
-          <cell r="AS73">
-            <v>5.75</v>
-          </cell>
-          <cell r="AT73">
-            <v>5.75</v>
-          </cell>
-          <cell r="AU73">
-            <v>20.75</v>
-          </cell>
-          <cell r="AV73">
-            <v>33.25</v>
-          </cell>
-          <cell r="AZ73">
-            <v>5</v>
-          </cell>
-          <cell r="BA73">
-            <v>6.25</v>
-          </cell>
-          <cell r="BB73">
-            <v>20.5</v>
-          </cell>
-          <cell r="BC73">
-            <v>33.5</v>
-          </cell>
-          <cell r="BG73">
-            <v>4.5</v>
-          </cell>
-          <cell r="BH73">
-            <v>4.75</v>
-          </cell>
-          <cell r="BI73">
-            <v>20</v>
-          </cell>
-          <cell r="BJ73">
-            <v>36</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21537,7 +20235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH166" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CH169" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="DZ231" sqref="DZ231"/>
     </sheetView>
   </sheetViews>
@@ -21550,78 +20248,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AD1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AD1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AJ1" s="37" t="s">
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AJ1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
     </row>
     <row r="2" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -21717,49 +20415,49 @@
       <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="38" t="s">
+      <c r="AR2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
-      <c r="AY2" s="38" t="s">
+      <c r="AY2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
-      <c r="BF2" s="38" t="s">
+      <c r="BF2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
       <c r="BK2" s="8"/>
       <c r="BL2" s="8"/>
-      <c r="BM2" s="38" t="s">
+      <c r="BM2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="23"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -22048,35 +20746,35 @@
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
       <c r="AJ5" s="12">
         <v>2</v>
       </c>
@@ -22841,35 +21539,35 @@
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
       <c r="AJ10" s="10">
         <v>12</v>
       </c>
@@ -23475,70 +22173,70 @@
       </c>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
       <c r="AJ15" s="8"/>
-      <c r="AK15" s="39" t="s">
+      <c r="AK15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
-      <c r="AR15" s="39" t="s">
+      <c r="AR15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="39"/>
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="24"/>
       <c r="AW15" s="8"/>
       <c r="AX15" s="8"/>
-      <c r="AY15" s="37" t="s">
+      <c r="AY15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
-      <c r="BF15" s="39" t="s">
+      <c r="BF15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BG15" s="39"/>
-      <c r="BH15" s="39"/>
-      <c r="BI15" s="39"/>
-      <c r="BJ15" s="39"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="24"/>
+      <c r="BI15" s="24"/>
+      <c r="BJ15" s="24"/>
     </row>
     <row r="16" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -23635,32 +22333,32 @@
         <v>48</v>
       </c>
       <c r="AJ16" s="13"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
       <c r="AP16" s="13"/>
       <c r="AQ16" s="13"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
       <c r="AW16" s="13"/>
       <c r="AX16" s="13"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="37"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="37"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
       <c r="BD16" s="13"/>
       <c r="BE16" s="13"/>
-      <c r="BF16" s="39"/>
-      <c r="BG16" s="39"/>
-      <c r="BH16" s="39"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="39"/>
+      <c r="BF16" s="24"/>
+      <c r="BG16" s="24"/>
+      <c r="BH16" s="24"/>
+      <c r="BI16" s="24"/>
+      <c r="BJ16" s="24"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -24110,24 +22808,24 @@
       </c>
     </row>
     <row r="20" spans="1:62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
       <c r="AJ20" s="12">
         <v>6</v>
       </c>
@@ -24219,35 +22917,35 @@
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
       <c r="AJ21" s="10">
         <v>8</v>
       </c>
@@ -25146,35 +23844,35 @@
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -25359,23 +24057,23 @@
       <c r="AP30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AQ30" s="37" t="s">
+      <c r="AQ30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
       <c r="BC30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="BD30" s="37" t="s">
+      <c r="BD30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BE30" s="37"/>
-      <c r="BF30" s="37"/>
-      <c r="BG30" s="37"/>
-      <c r="BH30" s="37"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="25"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -25820,24 +24518,24 @@
       </c>
     </row>
     <row r="35" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
       <c r="AP35" s="12">
         <v>6</v>
       </c>
@@ -25886,35 +24584,35 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
       <c r="AP36" s="10">
         <v>8</v>
       </c>
@@ -26778,35 +25476,35 @@
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -27168,42 +25866,42 @@
         <f t="shared" si="68"/>
         <v>2.8</v>
       </c>
-      <c r="AJ49" s="40" t="s">
+      <c r="AJ49" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AK49" s="40"/>
-      <c r="AL49" s="40"/>
-      <c r="AM49" s="40"/>
-      <c r="AN49" s="40"/>
-      <c r="AO49" s="40"/>
-      <c r="AP49" s="40"/>
-      <c r="AQ49" s="40"/>
-      <c r="AR49" s="40"/>
-      <c r="AS49" s="40"/>
-      <c r="AT49" s="40"/>
-      <c r="AU49" s="40"/>
-      <c r="AV49" s="40"/>
-      <c r="AW49" s="40"/>
-      <c r="AX49" s="40"/>
-      <c r="AY49" s="40"/>
-      <c r="AZ49" s="40"/>
-      <c r="BA49" s="40"/>
-      <c r="BB49" s="40"/>
-      <c r="BC49" s="40"/>
-      <c r="BD49" s="40"/>
-      <c r="BE49" s="40"/>
-      <c r="BF49" s="40"/>
-      <c r="BG49" s="40"/>
-      <c r="BH49" s="40"/>
-      <c r="BI49" s="40"/>
-      <c r="BJ49" s="40"/>
-      <c r="BK49" s="40"/>
-      <c r="BL49" s="40"/>
-      <c r="BM49" s="40"/>
-      <c r="BN49" s="40"/>
-      <c r="BO49" s="40"/>
-      <c r="BP49" s="40"/>
-      <c r="BQ49" s="40"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22"/>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22"/>
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="22"/>
+      <c r="AY49" s="22"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="22"/>
+      <c r="BB49" s="22"/>
+      <c r="BC49" s="22"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="22"/>
+      <c r="BF49" s="22"/>
+      <c r="BG49" s="22"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="22"/>
+      <c r="BJ49" s="22"/>
+      <c r="BK49" s="22"/>
+      <c r="BL49" s="22"/>
+      <c r="BM49" s="22"/>
+      <c r="BN49" s="22"/>
+      <c r="BO49" s="22"/>
+      <c r="BP49" s="22"/>
+      <c r="BQ49" s="22"/>
     </row>
     <row r="50" spans="1:92" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -27297,49 +25995,49 @@
       <c r="AJ50" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK50" s="38" t="s">
+      <c r="AK50" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AL50" s="38"/>
-      <c r="AM50" s="38"/>
-      <c r="AN50" s="38"/>
-      <c r="AO50" s="38"/>
+      <c r="AL50" s="23"/>
+      <c r="AM50" s="23"/>
+      <c r="AN50" s="23"/>
+      <c r="AO50" s="23"/>
       <c r="AP50" s="8"/>
       <c r="AQ50" s="8"/>
-      <c r="AR50" s="38" t="s">
+      <c r="AR50" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AS50" s="38"/>
-      <c r="AT50" s="38"/>
-      <c r="AU50" s="38"/>
-      <c r="AV50" s="38"/>
+      <c r="AS50" s="23"/>
+      <c r="AT50" s="23"/>
+      <c r="AU50" s="23"/>
+      <c r="AV50" s="23"/>
       <c r="AW50" s="8"/>
       <c r="AX50" s="8"/>
-      <c r="AY50" s="38" t="s">
+      <c r="AY50" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AZ50" s="38"/>
-      <c r="BA50" s="38"/>
-      <c r="BB50" s="38"/>
-      <c r="BC50" s="38"/>
+      <c r="AZ50" s="23"/>
+      <c r="BA50" s="23"/>
+      <c r="BB50" s="23"/>
+      <c r="BC50" s="23"/>
       <c r="BD50" s="8"/>
       <c r="BE50" s="8"/>
-      <c r="BF50" s="38" t="s">
+      <c r="BF50" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="BG50" s="38"/>
-      <c r="BH50" s="38"/>
-      <c r="BI50" s="38"/>
-      <c r="BJ50" s="38"/>
+      <c r="BG50" s="23"/>
+      <c r="BH50" s="23"/>
+      <c r="BI50" s="23"/>
+      <c r="BJ50" s="23"/>
       <c r="BK50" s="8"/>
       <c r="BL50" s="8"/>
-      <c r="BM50" s="38" t="s">
+      <c r="BM50" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="BN50" s="38"/>
-      <c r="BO50" s="38"/>
-      <c r="BP50" s="38"/>
-      <c r="BQ50" s="38"/>
+      <c r="BN50" s="23"/>
+      <c r="BO50" s="23"/>
+      <c r="BP50" s="23"/>
+      <c r="BQ50" s="23"/>
       <c r="CN50" s="1"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.25">
@@ -27831,24 +26529,24 @@
       </c>
     </row>
     <row r="54" spans="1:92" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
       <c r="AJ54" s="10">
         <v>4</v>
       </c>
@@ -27962,35 +26660,35 @@
       </c>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
       <c r="AJ55" s="12">
         <v>6</v>
       </c>
@@ -29379,40 +28077,40 @@
         <v>90.6</v>
       </c>
       <c r="AJ63" s="8"/>
-      <c r="AK63" s="41" t="s">
+      <c r="AK63" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AL63" s="41"/>
-      <c r="AM63" s="41"/>
-      <c r="AN63" s="41"/>
-      <c r="AO63" s="41"/>
+      <c r="AL63" s="21"/>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
+      <c r="AO63" s="21"/>
       <c r="AP63" s="8"/>
       <c r="AQ63" s="8"/>
-      <c r="AR63" s="41" t="s">
+      <c r="AR63" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AS63" s="41"/>
-      <c r="AT63" s="41"/>
-      <c r="AU63" s="41"/>
-      <c r="AV63" s="41"/>
+      <c r="AS63" s="21"/>
+      <c r="AT63" s="21"/>
+      <c r="AU63" s="21"/>
+      <c r="AV63" s="21"/>
       <c r="AW63" s="8"/>
       <c r="AX63" s="8"/>
-      <c r="AY63" s="40" t="s">
+      <c r="AY63" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AZ63" s="40"/>
-      <c r="BA63" s="40"/>
-      <c r="BB63" s="40"/>
-      <c r="BC63" s="40"/>
+      <c r="AZ63" s="22"/>
+      <c r="BA63" s="22"/>
+      <c r="BB63" s="22"/>
+      <c r="BC63" s="22"/>
       <c r="BD63" s="8"/>
       <c r="BE63" s="8"/>
-      <c r="BF63" s="41" t="s">
+      <c r="BF63" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG63" s="41"/>
-      <c r="BH63" s="41"/>
-      <c r="BI63" s="41"/>
-      <c r="BJ63" s="41"/>
+      <c r="BG63" s="21"/>
+      <c r="BH63" s="21"/>
+      <c r="BI63" s="21"/>
+      <c r="BJ63" s="21"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -29504,32 +28202,32 @@
         <v>90.6</v>
       </c>
       <c r="AJ64" s="13"/>
-      <c r="AK64" s="41"/>
-      <c r="AL64" s="41"/>
-      <c r="AM64" s="41"/>
-      <c r="AN64" s="41"/>
-      <c r="AO64" s="41"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="21"/>
       <c r="AP64" s="13"/>
       <c r="AQ64" s="13"/>
-      <c r="AR64" s="41"/>
-      <c r="AS64" s="41"/>
-      <c r="AT64" s="41"/>
-      <c r="AU64" s="41"/>
-      <c r="AV64" s="41"/>
+      <c r="AR64" s="21"/>
+      <c r="AS64" s="21"/>
+      <c r="AT64" s="21"/>
+      <c r="AU64" s="21"/>
+      <c r="AV64" s="21"/>
       <c r="AW64" s="13"/>
       <c r="AX64" s="13"/>
-      <c r="AY64" s="40"/>
-      <c r="AZ64" s="40"/>
-      <c r="BA64" s="40"/>
-      <c r="BB64" s="40"/>
-      <c r="BC64" s="40"/>
+      <c r="AY64" s="22"/>
+      <c r="AZ64" s="22"/>
+      <c r="BA64" s="22"/>
+      <c r="BB64" s="22"/>
+      <c r="BC64" s="22"/>
       <c r="BD64" s="13"/>
       <c r="BE64" s="13"/>
-      <c r="BF64" s="41"/>
-      <c r="BG64" s="41"/>
-      <c r="BH64" s="41"/>
-      <c r="BI64" s="41"/>
-      <c r="BJ64" s="41"/>
+      <c r="BF64" s="21"/>
+      <c r="BG64" s="21"/>
+      <c r="BH64" s="21"/>
+      <c r="BI64" s="21"/>
+      <c r="BJ64" s="21"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
@@ -29630,35 +28328,35 @@
       </c>
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
       <c r="AJ66" s="12">
         <v>2</v>
       </c>
@@ -31184,75 +29882,75 @@
       </c>
     </row>
     <row r="77" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
     </row>
     <row r="78" spans="1:62" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="33"/>
-      <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
       <c r="AP78" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AQ78" s="40" t="s">
+      <c r="AQ78" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AR78" s="40"/>
-      <c r="AS78" s="40"/>
-      <c r="AT78" s="40"/>
-      <c r="AU78" s="40"/>
+      <c r="AR78" s="22"/>
+      <c r="AS78" s="22"/>
+      <c r="AT78" s="22"/>
+      <c r="AU78" s="22"/>
       <c r="BC78" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BD78" s="40" t="s">
+      <c r="BD78" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BE78" s="40"/>
-      <c r="BF78" s="40"/>
-      <c r="BG78" s="40"/>
-      <c r="BH78" s="40"/>
+      <c r="BE78" s="22"/>
+      <c r="BF78" s="22"/>
+      <c r="BG78" s="22"/>
+      <c r="BH78" s="22"/>
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -32692,35 +31390,35 @@
       </c>
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
-      <c r="U91" s="34"/>
-      <c r="V91" s="34"/>
-      <c r="W91" s="34"/>
-      <c r="X91" s="34"/>
-      <c r="Y91" s="34"/>
-      <c r="Z91" s="34"/>
-      <c r="AA91" s="34"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="28"/>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -32813,20 +31511,20 @@
       <c r="AI92" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AK92" s="21" t="s">
+      <c r="AK92" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AL92" s="22"/>
-      <c r="AM92" s="22"/>
-      <c r="AN92" s="22"/>
-      <c r="AO92" s="22"/>
-      <c r="AP92" s="22"/>
-      <c r="AQ92" s="22"/>
-      <c r="AR92" s="22"/>
-      <c r="AS92" s="22"/>
-      <c r="AT92" s="22"/>
-      <c r="AU92" s="22"/>
-      <c r="AV92" s="23"/>
+      <c r="AL92" s="31"/>
+      <c r="AM92" s="31"/>
+      <c r="AN92" s="31"/>
+      <c r="AO92" s="31"/>
+      <c r="AP92" s="31"/>
+      <c r="AQ92" s="31"/>
+      <c r="AR92" s="31"/>
+      <c r="AS92" s="31"/>
+      <c r="AT92" s="31"/>
+      <c r="AU92" s="31"/>
+      <c r="AV92" s="32"/>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
@@ -32916,18 +31614,18 @@
         <f t="shared" ref="AI93:AI102" si="155">AVERAGE(AD93:AH93)</f>
         <v>70.2</v>
       </c>
-      <c r="AK93" s="24"/>
-      <c r="AL93" s="25"/>
-      <c r="AM93" s="25"/>
-      <c r="AN93" s="25"/>
-      <c r="AO93" s="25"/>
-      <c r="AP93" s="25"/>
-      <c r="AQ93" s="25"/>
-      <c r="AR93" s="25"/>
-      <c r="AS93" s="25"/>
-      <c r="AT93" s="25"/>
-      <c r="AU93" s="25"/>
-      <c r="AV93" s="26"/>
+      <c r="AK93" s="33"/>
+      <c r="AL93" s="34"/>
+      <c r="AM93" s="34"/>
+      <c r="AN93" s="34"/>
+      <c r="AO93" s="34"/>
+      <c r="AP93" s="34"/>
+      <c r="AQ93" s="34"/>
+      <c r="AR93" s="34"/>
+      <c r="AS93" s="34"/>
+      <c r="AT93" s="34"/>
+      <c r="AU93" s="34"/>
+      <c r="AV93" s="35"/>
     </row>
     <row r="94" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
@@ -34143,55 +32841,55 @@
       </c>
     </row>
     <row r="104" spans="1:48" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="35"/>
-      <c r="N104" s="35"/>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="27"/>
+      <c r="R104" s="27"/>
     </row>
     <row r="105" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33"/>
-      <c r="O105" s="33"/>
-      <c r="P105" s="33"/>
-      <c r="Q105" s="33"/>
-      <c r="R105" s="33"/>
-      <c r="S105" s="33"/>
-      <c r="T105" s="33"/>
-      <c r="U105" s="33"/>
-      <c r="V105" s="33"/>
-      <c r="W105" s="33"/>
-      <c r="X105" s="33"/>
-      <c r="Y105" s="33"/>
-      <c r="Z105" s="33"/>
-      <c r="AA105" s="33"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="29"/>
+      <c r="AA105" s="29"/>
     </row>
     <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
@@ -34284,20 +32982,20 @@
       <c r="AI106" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AK106" s="27" t="s">
+      <c r="AK106" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="AL106" s="28"/>
-      <c r="AM106" s="28"/>
-      <c r="AN106" s="28"/>
-      <c r="AO106" s="28"/>
-      <c r="AP106" s="28"/>
-      <c r="AQ106" s="28"/>
-      <c r="AR106" s="28"/>
-      <c r="AS106" s="28"/>
-      <c r="AT106" s="28"/>
-      <c r="AU106" s="28"/>
-      <c r="AV106" s="29"/>
+      <c r="AL106" s="37"/>
+      <c r="AM106" s="37"/>
+      <c r="AN106" s="37"/>
+      <c r="AO106" s="37"/>
+      <c r="AP106" s="37"/>
+      <c r="AQ106" s="37"/>
+      <c r="AR106" s="37"/>
+      <c r="AS106" s="37"/>
+      <c r="AT106" s="37"/>
+      <c r="AU106" s="37"/>
+      <c r="AV106" s="38"/>
     </row>
     <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
@@ -34387,18 +33085,18 @@
         <f t="shared" ref="AI107:AI118" si="160">AVERAGE(AD107:AH107)</f>
         <v>82.8</v>
       </c>
-      <c r="AK107" s="30"/>
-      <c r="AL107" s="31"/>
-      <c r="AM107" s="31"/>
-      <c r="AN107" s="31"/>
-      <c r="AO107" s="31"/>
-      <c r="AP107" s="31"/>
-      <c r="AQ107" s="31"/>
-      <c r="AR107" s="31"/>
-      <c r="AS107" s="31"/>
-      <c r="AT107" s="31"/>
-      <c r="AU107" s="31"/>
-      <c r="AV107" s="32"/>
+      <c r="AK107" s="39"/>
+      <c r="AL107" s="40"/>
+      <c r="AM107" s="40"/>
+      <c r="AN107" s="40"/>
+      <c r="AO107" s="40"/>
+      <c r="AP107" s="40"/>
+      <c r="AQ107" s="40"/>
+      <c r="AR107" s="40"/>
+      <c r="AS107" s="40"/>
+      <c r="AT107" s="40"/>
+      <c r="AU107" s="40"/>
+      <c r="AV107" s="41"/>
     </row>
     <row r="108" spans="1:48" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
@@ -35792,35 +34490,35 @@
       </c>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="34"/>
-      <c r="L120" s="34"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="34"/>
-      <c r="O120" s="34"/>
-      <c r="P120" s="34"/>
-      <c r="Q120" s="34"/>
-      <c r="R120" s="34"/>
-      <c r="S120" s="34"/>
-      <c r="T120" s="34"/>
-      <c r="U120" s="34"/>
-      <c r="V120" s="34"/>
-      <c r="W120" s="34"/>
-      <c r="X120" s="34"/>
-      <c r="Y120" s="34"/>
-      <c r="Z120" s="34"/>
-      <c r="AA120" s="34"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+      <c r="O120" s="28"/>
+      <c r="P120" s="28"/>
+      <c r="Q120" s="28"/>
+      <c r="R120" s="28"/>
+      <c r="S120" s="28"/>
+      <c r="T120" s="28"/>
+      <c r="U120" s="28"/>
+      <c r="V120" s="28"/>
+      <c r="W120" s="28"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="28"/>
+      <c r="Z120" s="28"/>
+      <c r="AA120" s="28"/>
     </row>
     <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -36994,55 +35692,55 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="35"/>
-      <c r="M135" s="35"/>
-      <c r="N135" s="35"/>
-      <c r="O135" s="35"/>
-      <c r="P135" s="35"/>
-      <c r="Q135" s="35"/>
-      <c r="R135" s="35"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27"/>
+      <c r="Q135" s="27"/>
+      <c r="R135" s="27"/>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
-      <c r="K136" s="33"/>
-      <c r="L136" s="33"/>
-      <c r="M136" s="33"/>
-      <c r="N136" s="33"/>
-      <c r="O136" s="33"/>
-      <c r="P136" s="33"/>
-      <c r="Q136" s="33"/>
-      <c r="R136" s="33"/>
-      <c r="S136" s="33"/>
-      <c r="T136" s="33"/>
-      <c r="U136" s="33"/>
-      <c r="V136" s="33"/>
-      <c r="W136" s="33"/>
-      <c r="X136" s="33"/>
-      <c r="Y136" s="33"/>
-      <c r="Z136" s="33"/>
-      <c r="AA136" s="33"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="29"/>
+      <c r="Q136" s="29"/>
+      <c r="R136" s="29"/>
+      <c r="S136" s="29"/>
+      <c r="T136" s="29"/>
+      <c r="U136" s="29"/>
+      <c r="V136" s="29"/>
+      <c r="W136" s="29"/>
+      <c r="X136" s="29"/>
+      <c r="Y136" s="29"/>
+      <c r="Z136" s="29"/>
+      <c r="AA136" s="29"/>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -38396,35 +37094,35 @@
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="34"/>
-      <c r="L153" s="34"/>
-      <c r="M153" s="34"/>
-      <c r="N153" s="34"/>
-      <c r="O153" s="34"/>
-      <c r="P153" s="34"/>
-      <c r="Q153" s="34"/>
-      <c r="R153" s="34"/>
-      <c r="S153" s="34"/>
-      <c r="T153" s="34"/>
-      <c r="U153" s="34"/>
-      <c r="V153" s="34"/>
-      <c r="W153" s="34"/>
-      <c r="X153" s="34"/>
-      <c r="Y153" s="34"/>
-      <c r="Z153" s="34"/>
-      <c r="AA153" s="34"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="28"/>
+      <c r="P153" s="28"/>
+      <c r="Q153" s="28"/>
+      <c r="R153" s="28"/>
+      <c r="S153" s="28"/>
+      <c r="T153" s="28"/>
+      <c r="U153" s="28"/>
+      <c r="V153" s="28"/>
+      <c r="W153" s="28"/>
+      <c r="X153" s="28"/>
+      <c r="Y153" s="28"/>
+      <c r="Z153" s="28"/>
+      <c r="AA153" s="28"/>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -39778,55 +38476,55 @@
       </c>
     </row>
     <row r="170" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="35"/>
-      <c r="J170" s="35"/>
-      <c r="K170" s="35"/>
-      <c r="L170" s="35"/>
-      <c r="M170" s="35"/>
-      <c r="N170" s="35"/>
-      <c r="O170" s="35"/>
-      <c r="P170" s="35"/>
-      <c r="Q170" s="35"/>
-      <c r="R170" s="35"/>
+      <c r="A170" s="27"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+      <c r="K170" s="27"/>
+      <c r="L170" s="27"/>
+      <c r="M170" s="27"/>
+      <c r="N170" s="27"/>
+      <c r="O170" s="27"/>
+      <c r="P170" s="27"/>
+      <c r="Q170" s="27"/>
+      <c r="R170" s="27"/>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="33"/>
-      <c r="K171" s="33"/>
-      <c r="L171" s="33"/>
-      <c r="M171" s="33"/>
-      <c r="N171" s="33"/>
-      <c r="O171" s="33"/>
-      <c r="P171" s="33"/>
-      <c r="Q171" s="33"/>
-      <c r="R171" s="33"/>
-      <c r="S171" s="33"/>
-      <c r="T171" s="33"/>
-      <c r="U171" s="33"/>
-      <c r="V171" s="33"/>
-      <c r="W171" s="33"/>
-      <c r="X171" s="33"/>
-      <c r="Y171" s="33"/>
-      <c r="Z171" s="33"/>
-      <c r="AA171" s="33"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="29"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29"/>
+      <c r="O171" s="29"/>
+      <c r="P171" s="29"/>
+      <c r="Q171" s="29"/>
+      <c r="R171" s="29"/>
+      <c r="S171" s="29"/>
+      <c r="T171" s="29"/>
+      <c r="U171" s="29"/>
+      <c r="V171" s="29"/>
+      <c r="W171" s="29"/>
+      <c r="X171" s="29"/>
+      <c r="Y171" s="29"/>
+      <c r="Z171" s="29"/>
+      <c r="AA171" s="29"/>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
@@ -41360,35 +40058,35 @@
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A190" s="34" t="s">
+      <c r="A190" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B190" s="34"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="34"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="34"/>
-      <c r="L190" s="34"/>
-      <c r="M190" s="34"/>
-      <c r="N190" s="34"/>
-      <c r="O190" s="34"/>
-      <c r="P190" s="34"/>
-      <c r="Q190" s="34"/>
-      <c r="R190" s="34"/>
-      <c r="S190" s="34"/>
-      <c r="T190" s="34"/>
-      <c r="U190" s="34"/>
-      <c r="V190" s="34"/>
-      <c r="W190" s="34"/>
-      <c r="X190" s="34"/>
-      <c r="Y190" s="34"/>
-      <c r="Z190" s="34"/>
-      <c r="AA190" s="34"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
+      <c r="N190" s="28"/>
+      <c r="O190" s="28"/>
+      <c r="P190" s="28"/>
+      <c r="Q190" s="28"/>
+      <c r="R190" s="28"/>
+      <c r="S190" s="28"/>
+      <c r="T190" s="28"/>
+      <c r="U190" s="28"/>
+      <c r="V190" s="28"/>
+      <c r="W190" s="28"/>
+      <c r="X190" s="28"/>
+      <c r="Y190" s="28"/>
+      <c r="Z190" s="28"/>
+      <c r="AA190" s="28"/>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
@@ -42959,42 +41657,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AK63:AO64"/>
-    <mergeCell ref="AR63:AV64"/>
-    <mergeCell ref="AY63:BC64"/>
-    <mergeCell ref="BF63:BJ64"/>
-    <mergeCell ref="AQ78:AU78"/>
-    <mergeCell ref="BD78:BH78"/>
-    <mergeCell ref="AJ49:BQ49"/>
-    <mergeCell ref="AK50:AO50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AY50:BC50"/>
-    <mergeCell ref="BF50:BJ50"/>
-    <mergeCell ref="BM50:BQ50"/>
-    <mergeCell ref="AK15:AO16"/>
-    <mergeCell ref="AR15:AV16"/>
-    <mergeCell ref="AY15:BC16"/>
-    <mergeCell ref="BF15:BJ16"/>
-    <mergeCell ref="AQ30:AU30"/>
-    <mergeCell ref="BD30:BH30"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AJ1:BQ1"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BM2:BQ2"/>
-    <mergeCell ref="A77:R77"/>
-    <mergeCell ref="A153:AA153"/>
-    <mergeCell ref="A170:R170"/>
-    <mergeCell ref="A171:AA171"/>
-    <mergeCell ref="A190:AA190"/>
-    <mergeCell ref="A91:AA91"/>
-    <mergeCell ref="A104:R104"/>
-    <mergeCell ref="A105:AA105"/>
-    <mergeCell ref="A120:AA120"/>
-    <mergeCell ref="A135:R135"/>
-    <mergeCell ref="A136:AA136"/>
     <mergeCell ref="AK92:AV93"/>
     <mergeCell ref="AK106:AV107"/>
     <mergeCell ref="A1:AA1"/>
@@ -43011,6 +41673,42 @@
     <mergeCell ref="A54:R54"/>
     <mergeCell ref="A55:AA55"/>
     <mergeCell ref="A66:AA66"/>
+    <mergeCell ref="A77:R77"/>
+    <mergeCell ref="A153:AA153"/>
+    <mergeCell ref="A170:R170"/>
+    <mergeCell ref="A171:AA171"/>
+    <mergeCell ref="A190:AA190"/>
+    <mergeCell ref="A91:AA91"/>
+    <mergeCell ref="A104:R104"/>
+    <mergeCell ref="A105:AA105"/>
+    <mergeCell ref="A120:AA120"/>
+    <mergeCell ref="A135:R135"/>
+    <mergeCell ref="A136:AA136"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AJ1:BQ1"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BM2:BQ2"/>
+    <mergeCell ref="AK15:AO16"/>
+    <mergeCell ref="AR15:AV16"/>
+    <mergeCell ref="AY15:BC16"/>
+    <mergeCell ref="BF15:BJ16"/>
+    <mergeCell ref="AQ30:AU30"/>
+    <mergeCell ref="BD30:BH30"/>
+    <mergeCell ref="AJ49:BQ49"/>
+    <mergeCell ref="AK50:AO50"/>
+    <mergeCell ref="AR50:AV50"/>
+    <mergeCell ref="AY50:BC50"/>
+    <mergeCell ref="BF50:BJ50"/>
+    <mergeCell ref="BM50:BQ50"/>
+    <mergeCell ref="AK63:AO64"/>
+    <mergeCell ref="AR63:AV64"/>
+    <mergeCell ref="AY63:BC64"/>
+    <mergeCell ref="BF63:BJ64"/>
+    <mergeCell ref="AQ78:AU78"/>
+    <mergeCell ref="BD78:BH78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
